--- a/Simulations/Allocation.xlsx
+++ b/Simulations/Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C0E36-9042-BA43-9092-BA83DF9FC059}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E787B57-6E3D-0C4D-81A6-B2F844D68701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="29260" windowHeight="21140" xr2:uid="{81D3044D-D6FD-C14F-BD95-BF11389E3389}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19320" windowHeight="20540" xr2:uid="{81D3044D-D6FD-C14F-BD95-BF11389E3389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>M_GLCpts_1_Enzyme_c</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Glycolysis</t>
   </si>
   <si>
-    <t>M_HEX1_Enzyme_c</t>
-  </si>
-  <si>
     <t>M_PGI_fwd_Enzyme_c</t>
   </si>
   <si>
@@ -54,18 +51,6 @@
     <t>M_GAPD_2_fwd_Enzyme_c</t>
   </si>
   <si>
-    <t>M_PGK_fwd_Enzyme_c</t>
-  </si>
-  <si>
-    <t>M_PGM_1_fwd_Enzyme_c</t>
-  </si>
-  <si>
-    <t>M_PGM_2_fwd_Enzyme_c</t>
-  </si>
-  <si>
-    <t>M_PGM_3_fwd_Enzyme_c</t>
-  </si>
-  <si>
     <t>M_ENO_fwd_Enzyme_c</t>
   </si>
   <si>
@@ -154,6 +139,18 @@
   </si>
   <si>
     <t>M_CBMKr_2_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_PGK_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_PGM_1_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_PGM_2_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_PGM_3_rvs_Enzyme_c</t>
   </si>
 </sst>
 </file>
@@ -530,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EDB205-719A-4C4F-B7E5-4C76399A45C8}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,19 +544,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -570,13 +567,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -587,58 +584,58 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,60 +643,55 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Simulations/Allocation.xlsx
+++ b/Simulations/Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Simulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E787B57-6E3D-0C4D-81A6-B2F844D68701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A2472-1F8E-184C-894C-28607D3439D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19320" windowHeight="20540" xr2:uid="{81D3044D-D6FD-C14F-BD95-BF11389E3389}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19320" windowHeight="17540" xr2:uid="{81D3044D-D6FD-C14F-BD95-BF11389E3389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>Glucose transporter</t>
   </si>
   <si>
-    <t>Lactate production</t>
-  </si>
-  <si>
     <t>Mixed acid production</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>M_PGM_3_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>Lactic acid production</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -590,12 +590,12 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -632,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,12 +646,12 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -670,15 +670,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
